--- a/结果/模型性能比较.xlsx
+++ b/结果/模型性能比较.xlsx
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1250.358</v>
+        <v>157.6916</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3655.6816</v>
+        <v>271.8063</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-52.2262</v>
+        <v>-2.5507</v>
       </c>
       <c r="F3" s="0" t="n"/>
       <c r="G3" s="0" t="n"/>
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>422.1191</v>
+        <v>101.3035</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>620.4388</v>
+        <v>146.2968</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-0.5332</v>
+        <v>-0.0286</v>
       </c>
       <c r="F4" s="0" t="n"/>
       <c r="G4" s="0" t="n"/>
@@ -2342,17 +2342,17 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>66.2401%</t>
+          <t>35.7585%</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>83.0281%</t>
+          <t>46.1761%</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>98.9791%</t>
+          <t>98.8775%</t>
         </is>
       </c>
       <c r="F5" s="0" t="n"/>
@@ -2374,9 +2374,15 @@
           <t>OLS</t>
         </is>
       </c>
-      <c r="C6" s="0" t="n"/>
-      <c r="D6" s="0" t="n"/>
-      <c r="E6" s="0" t="n"/>
+      <c r="C6" s="0" t="n">
+        <v>179.8277</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>302.8592</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-1.8261</v>
+      </c>
       <c r="F6" s="0" t="n"/>
       <c r="G6" s="0" t="n"/>
       <c r="H6" s="0" t="n"/>
@@ -2391,9 +2397,15 @@
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n"/>
-      <c r="D7" s="0" t="n"/>
-      <c r="E7" s="0" t="n"/>
+      <c r="C7" s="0" t="n">
+        <v>146.4932</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>186.1089</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-0.0672</v>
+      </c>
       <c r="F7" s="0" t="n"/>
       <c r="G7" s="0" t="n"/>
       <c r="H7" s="0" t="n"/>
@@ -2408,9 +2420,21 @@
           <t>Improvement (%)</t>
         </is>
       </c>
-      <c r="C8" s="0" t="n"/>
-      <c r="D8" s="0" t="n"/>
-      <c r="E8" s="0" t="n"/>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>18.5369%</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>38.5494%</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>96.3216%</t>
+        </is>
+      </c>
       <c r="F8" s="0" t="n"/>
       <c r="G8" s="0" t="n"/>
       <c r="H8" s="0" t="n"/>
@@ -2430,9 +2454,15 @@
           <t>OLS</t>
         </is>
       </c>
-      <c r="C9" s="0" t="n"/>
-      <c r="D9" s="0" t="n"/>
-      <c r="E9" s="0" t="n"/>
+      <c r="C9" s="0" t="n">
+        <v>245.9418</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>324.3145</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-0.8628</v>
+      </c>
       <c r="F9" s="0" t="n"/>
       <c r="G9" s="0" t="n"/>
       <c r="H9" s="0" t="n"/>
@@ -2447,9 +2477,15 @@
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C10" s="0" t="n"/>
-      <c r="D10" s="0" t="n"/>
-      <c r="E10" s="0" t="n"/>
+      <c r="C10" s="0" t="n">
+        <v>181.2868</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>238.9213</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-0.011</v>
+      </c>
       <c r="F10" s="0" t="n"/>
       <c r="G10" s="0" t="n"/>
       <c r="H10" s="0" t="n"/>
@@ -2464,9 +2500,21 @@
           <t>Improvement (%)</t>
         </is>
       </c>
-      <c r="C11" s="0" t="n"/>
-      <c r="D11" s="0" t="n"/>
-      <c r="E11" s="0" t="n"/>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>26.2888%</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>26.3304%</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>98.7262%</t>
+        </is>
+      </c>
       <c r="F11" s="0" t="n"/>
       <c r="G11" s="0" t="n"/>
       <c r="H11" s="0" t="n"/>
@@ -2486,9 +2534,15 @@
           <t>OLS</t>
         </is>
       </c>
-      <c r="C12" s="0" t="n"/>
-      <c r="D12" s="0" t="n"/>
-      <c r="E12" s="0" t="n"/>
+      <c r="C12" s="0" t="n">
+        <v>160.3856</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>286.6625</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-3.3062</v>
+      </c>
       <c r="F12" s="0" t="n"/>
       <c r="G12" s="0" t="n"/>
       <c r="H12" s="0" t="n"/>
@@ -2503,9 +2557,15 @@
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="C13" s="0" t="n"/>
-      <c r="D13" s="0" t="n"/>
-      <c r="E13" s="0" t="n"/>
+      <c r="C13" s="0" t="n">
+        <v>102.0761</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>140.4088</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-0.0331</v>
+      </c>
       <c r="F13" s="0" t="n"/>
       <c r="G13" s="0" t="n"/>
       <c r="H13" s="0" t="n"/>
@@ -2520,9 +2580,21 @@
           <t>Improvement (%)</t>
         </is>
       </c>
-      <c r="C14" s="0" t="n"/>
-      <c r="D14" s="0" t="n"/>
-      <c r="E14" s="0" t="n"/>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>36.3558%</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>51.0195%</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>98.9988%</t>
+        </is>
+      </c>
       <c r="F14" s="0" t="n"/>
       <c r="G14" s="0" t="n"/>
       <c r="H14" s="0" t="n"/>

--- a/结果/模型性能比较.xlsx
+++ b/结果/模型性能比较.xlsx
@@ -2295,17 +2295,23 @@
         </is>
       </c>
       <c r="C3" s="0" t="n">
+        <v>1250.358</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3655.6816</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-52.2262</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>157.6916</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>271.8063</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>-2.5507</v>
       </c>
-      <c r="F3" s="0" t="n"/>
-      <c r="G3" s="0" t="n"/>
-      <c r="H3" s="0" t="n"/>
       <c r="I3" s="0" t="n"/>
       <c r="J3" s="0" t="n"/>
       <c r="K3" s="0" t="n"/>
@@ -2318,17 +2324,23 @@
         </is>
       </c>
       <c r="C4" s="0" t="n">
+        <v>422.1191</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>620.4388</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-0.5332</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>101.3035</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>146.2968</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>-0.0286</v>
       </c>
-      <c r="F4" s="0" t="n"/>
-      <c r="G4" s="0" t="n"/>
-      <c r="H4" s="0" t="n"/>
       <c r="I4" s="0" t="n"/>
       <c r="J4" s="0" t="n"/>
       <c r="K4" s="0" t="n"/>
@@ -2342,22 +2354,34 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
+          <t>66.2401%</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>83.0281%</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>98.9791%</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
           <t>35.7585%</t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>46.1761%</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>98.8775%</t>
         </is>
       </c>
-      <c r="F5" s="0" t="n"/>
-      <c r="G5" s="0" t="n"/>
-      <c r="H5" s="0" t="n"/>
       <c r="I5" s="0" t="n"/>
       <c r="J5" s="0" t="n"/>
       <c r="K5" s="0" t="n"/>
@@ -2375,17 +2399,23 @@
         </is>
       </c>
       <c r="C6" s="0" t="n">
+        <v>595.0804000000001</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>847.7388999999999</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-6.5663</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>179.8277</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>302.8592</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>-1.8261</v>
       </c>
-      <c r="F6" s="0" t="n"/>
-      <c r="G6" s="0" t="n"/>
-      <c r="H6" s="0" t="n"/>
       <c r="I6" s="0" t="n"/>
       <c r="J6" s="0" t="n"/>
       <c r="K6" s="0" t="n"/>
@@ -2398,17 +2428,23 @@
         </is>
       </c>
       <c r="C7" s="0" t="n">
+        <v>242.3827</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>318.941</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>146.4932</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>186.1089</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>-0.0672</v>
       </c>
-      <c r="F7" s="0" t="n"/>
-      <c r="G7" s="0" t="n"/>
-      <c r="H7" s="0" t="n"/>
       <c r="I7" s="0" t="n"/>
       <c r="J7" s="0" t="n"/>
       <c r="K7" s="0" t="n"/>
@@ -2422,22 +2458,34 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
+          <t>59.2689%</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>62.3774%</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>98.919%</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
           <t>18.5369%</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>38.5494%</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>96.3216%</t>
         </is>
       </c>
-      <c r="F8" s="0" t="n"/>
-      <c r="G8" s="0" t="n"/>
-      <c r="H8" s="0" t="n"/>
       <c r="I8" s="0" t="n"/>
       <c r="J8" s="0" t="n"/>
       <c r="K8" s="0" t="n"/>
@@ -2455,17 +2503,23 @@
         </is>
       </c>
       <c r="C9" s="0" t="n">
+        <v>447.2709</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>556.6082</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-0.5117</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>245.9418</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>324.3145</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>-0.8628</v>
       </c>
-      <c r="F9" s="0" t="n"/>
-      <c r="G9" s="0" t="n"/>
-      <c r="H9" s="0" t="n"/>
       <c r="I9" s="0" t="n"/>
       <c r="J9" s="0" t="n"/>
       <c r="K9" s="0" t="n"/>
@@ -2478,17 +2532,23 @@
         </is>
       </c>
       <c r="C10" s="0" t="n">
+        <v>368.3053</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>454.5486</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-0.008200000000000001</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>181.2868</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>238.9213</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>-0.011</v>
       </c>
-      <c r="F10" s="0" t="n"/>
-      <c r="G10" s="0" t="n"/>
-      <c r="H10" s="0" t="n"/>
       <c r="I10" s="0" t="n"/>
       <c r="J10" s="0" t="n"/>
       <c r="K10" s="0" t="n"/>
@@ -2502,22 +2562,34 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
+          <t>17.655%</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>18.336%</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>98.4025%</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
           <t>26.2888%</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>26.3304%</t>
         </is>
       </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>98.7262%</t>
         </is>
       </c>
-      <c r="F11" s="0" t="n"/>
-      <c r="G11" s="0" t="n"/>
-      <c r="H11" s="0" t="n"/>
       <c r="I11" s="0" t="n"/>
       <c r="J11" s="0" t="n"/>
       <c r="K11" s="0" t="n"/>
@@ -2535,17 +2607,23 @@
         </is>
       </c>
       <c r="C12" s="0" t="n">
+        <v>1064.4553</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2790.3456</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-557.8468</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>160.3856</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>286.6625</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>-3.3062</v>
       </c>
-      <c r="F12" s="0" t="n"/>
-      <c r="G12" s="0" t="n"/>
-      <c r="H12" s="0" t="n"/>
       <c r="I12" s="0" t="n"/>
       <c r="J12" s="0" t="n"/>
       <c r="K12" s="0" t="n"/>
@@ -2558,17 +2636,23 @@
         </is>
       </c>
       <c r="C13" s="0" t="n">
+        <v>269.2777</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>305.5362</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-5.7004</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>102.0761</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>140.4088</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>-0.0331</v>
       </c>
-      <c r="F13" s="0" t="n"/>
-      <c r="G13" s="0" t="n"/>
-      <c r="H13" s="0" t="n"/>
       <c r="I13" s="0" t="n"/>
       <c r="J13" s="0" t="n"/>
       <c r="K13" s="0" t="n"/>
@@ -2582,22 +2666,34 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
+          <t>74.7028%</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>89.0502%</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>98.9781%</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
           <t>36.3558%</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>51.0195%</t>
         </is>
       </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="H14" s="0" t="inlineStr">
         <is>
           <t>98.9988%</t>
         </is>
       </c>
-      <c r="F14" s="0" t="n"/>
-      <c r="G14" s="0" t="n"/>
-      <c r="H14" s="0" t="n"/>
       <c r="I14" s="0" t="n"/>
       <c r="J14" s="0" t="n"/>
       <c r="K14" s="0" t="n"/>
